--- a/backend/api.xlsx
+++ b/backend/api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\go\SmartLocker\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3368C03D-71E1-4E22-9A07-AB8FDECC0AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505BC1B-0176-4D33-99E5-82EB53D8B325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>SmartLocker API v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,7 +470,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -752,52 +752,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -806,53 +880,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1169,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1155,775 +1187,779 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="27"/>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="20" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="17"/>
-      <c r="L5" s="5" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="17"/>
-      <c r="L7" s="5"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="26"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="L10" s="34" t="s">
+      <c r="J10" s="23"/>
+      <c r="L10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="L11" s="5" t="s">
+      <c r="J11" s="23"/>
+      <c r="L11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="L12" s="5">
+      <c r="J12" s="23"/>
+      <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="24">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="2">
         <v>2</v>
       </c>
       <c r="M13" s="1">
         <v>100</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15"/>
-      <c r="L14" s="5">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="L14" s="2">
         <v>3</v>
       </c>
       <c r="M14" s="1">
         <v>101</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="24">
         <v>6</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="2">
         <v>4</v>
       </c>
       <c r="M15" s="1">
         <v>102</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="15"/>
-      <c r="L16" s="5">
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="L16" s="2">
         <v>5</v>
       </c>
       <c r="M16" s="1">
         <v>103</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="24">
         <v>7</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="2">
         <v>6</v>
       </c>
       <c r="M17" s="1">
         <v>104</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="L18" s="5">
+      <c r="J18" s="23"/>
+      <c r="L18" s="2">
         <v>7</v>
       </c>
       <c r="M18" s="1">
         <v>200</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="L19" s="5">
+      <c r="J19" s="23"/>
+      <c r="L19" s="2">
         <v>8</v>
       </c>
       <c r="M19" s="1">
         <v>201</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="L20" s="5">
+      <c r="J20" s="23"/>
+      <c r="L20" s="2">
         <v>9</v>
       </c>
       <c r="M20" s="1">
         <v>202</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="L21" s="5">
+      <c r="J21" s="23"/>
+      <c r="L21" s="2">
         <v>10</v>
       </c>
       <c r="M21" s="1">
         <v>300</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="L22" s="5">
+      <c r="J22" s="23"/>
+      <c r="L22" s="2">
         <v>11</v>
       </c>
       <c r="M22" s="1">
         <v>301</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="2">
         <v>12</v>
       </c>
       <c r="M23" s="1">
         <v>400</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="10">
         <v>9</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="2">
         <v>13</v>
       </c>
       <c r="M24" s="1">
         <v>401</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L25" s="5">
+      <c r="L25" s="2">
         <v>14</v>
       </c>
       <c r="M25" s="1">
         <v>402</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L26" s="5">
+      <c r="L26" s="2">
         <v>15</v>
       </c>
       <c r="M26" s="1">
         <v>403</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L27" s="5">
+      <c r="L27" s="2">
         <v>16</v>
       </c>
       <c r="M27" s="1">
         <v>404</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L28" s="5">
+      <c r="L28" s="2">
         <v>17</v>
       </c>
       <c r="M28" s="1">
         <v>500</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="7">
+      <c r="L29" s="4">
         <v>18</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="5">
         <v>600</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1936,6 +1972,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L10:N10"/>
@@ -1952,46 +2028,6 @@
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
